--- a/artfynd/A 13233-2023 artfynd.xlsx
+++ b/artfynd/A 13233-2023 artfynd.xlsx
@@ -815,12 +815,7 @@
         <v>124081840</v>
       </c>
       <c r="B3" t="n">
-        <v>41292</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>41574</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
